--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.39</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.79</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>62.81</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -877,14 +920,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -893,14 +958,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -909,13 +996,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -549,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +622,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410009</t>
+          <t>010296</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富量子生命力混合</t>
+          <t>万家互联互通中国优势量化策略混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.81</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.2181</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -709,21 +845,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.54</t>
+          <t>61.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -803,21 +939,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>60.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,7 +988,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -882,150 +1018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010296</t>
+          <t>410009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
+          <t>华富量子生命力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>62.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2181</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010690</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010297</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010691</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1039,112 +1061,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000032-深桑达A.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +519,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,7 +535,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林泓利增强债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009916</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>格林泓利增强债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -766,100 +1143,6 @@
       </c>
       <c r="H5" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>410009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华富量子生命力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -939,21 +1222,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.54</t>
+          <t>61.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1028,22 +1311,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.81</t>
+          <t>60.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1056,6 +1339,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
